--- a/Inputs/IMG_ROW/addons.xlsx
+++ b/Inputs/IMG_ROW/addons.xlsx
@@ -5,19 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Dental" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Dental-Addon" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Maternity (Consultations, Scans" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Materity-Addon" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Maternity-Addon" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="New Born Cover" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Pre-existing Condition Cover" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Maternity Waiting Period" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Complications of Pregnancy" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Dental Waiting Period" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$B$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$B$1:$F$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$C$1:$H$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$C$1:$G$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +32,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="59">
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
   <si>
     <t xml:space="preserve">sheetName</t>
   </si>
@@ -50,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditional-fixed</t>
   </si>
   <si>
     <t xml:space="preserve">Dental-Addon</t>
@@ -86,16 +95,16 @@
     <t xml:space="preserve">coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">ageStart</t>
+    <t xml:space="preserve">minAge</t>
   </si>
   <si>
-    <t xml:space="preserve">ageEnd</t>
+    <t xml:space="preserve">maxAge</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">area</t>
+    <t xml:space="preserve">residency</t>
   </si>
   <si>
     <t xml:space="preserve">Area 1 (Europe)</t>
@@ -125,7 +134,7 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">Materity-Addon</t>
+    <t xml:space="preserve">Maternity-Addon</t>
   </si>
   <si>
     <t xml:space="preserve">Maternity Addon</t>
@@ -199,9 +208,6 @@
     <t xml:space="preserve">Platinum</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
     <t xml:space="preserve">percentage</t>
   </si>
   <si>
@@ -222,6 +228,21 @@
   <si>
     <t xml:space="preserve">Continuing Personal Medical Exclusions (CPME)- Applicable where you are moving from your previous insurer to us</t>
   </si>
+  <si>
+    <t xml:space="preserve">Optional Benefit Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 months wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full (10 months wait)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 months wait</t>
+  </si>
 </sst>
 </file>
 
@@ -233,7 +254,7 @@
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -260,6 +281,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -313,6 +341,7 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -396,7 +425,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -409,11 +438,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,11 +454,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,7 +470,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,15 +490,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,7 +506,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,23 +514,23 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -575,25 +612,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="68.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="69.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.21"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -602,89 +642,99 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="J3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -704,38 +754,38 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
+      <c r="A2" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -743,19 +793,19 @@
       <c r="C2" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="12" t="n">
         <v>282</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
+      <c r="A3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>19</v>
@@ -763,19 +813,19 @@
       <c r="C3" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="12" t="n">
         <v>457</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
+      <c r="A4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -783,19 +833,19 @@
       <c r="C4" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="13" t="n">
         <v>340</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
+      <c r="A5" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>19</v>
@@ -803,19 +853,19 @@
       <c r="C5" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="13" t="n">
         <v>550</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
+      <c r="A6" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -823,19 +873,19 @@
       <c r="C6" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="12" t="n">
         <v>282</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>21</v>
+      <c r="A7" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>19</v>
@@ -843,19 +893,19 @@
       <c r="C7" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="12" t="n">
         <v>457</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
+      <c r="A8" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -863,19 +913,19 @@
       <c r="C8" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="13" t="n">
         <v>340</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>21</v>
+      <c r="A9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>19</v>
@@ -883,39 +933,39 @@
       <c r="C9" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="13" t="n">
         <v>550</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>286</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D10" s="12" t="n">
-        <v>286</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
+      <c r="A11" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>19</v>
@@ -923,39 +973,39 @@
       <c r="C11" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="14" t="n">
         <v>463</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>345</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12" t="n">
-        <v>345</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
+      <c r="A13" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>19</v>
@@ -963,19 +1013,19 @@
       <c r="C13" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="14" t="n">
         <v>557</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
+      <c r="A14" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -983,19 +1033,19 @@
       <c r="C14" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="12" t="n">
         <v>254</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
+      <c r="A15" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>19</v>
@@ -1003,19 +1053,19 @@
       <c r="C15" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="12" t="n">
         <v>412</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
+      <c r="A16" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1023,19 +1073,19 @@
       <c r="C16" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="13" t="n">
         <v>306</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>19</v>
+      <c r="A17" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>19</v>
@@ -1043,39 +1093,39 @@
       <c r="C17" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="13" t="n">
         <v>495</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="12" t="n">
         <v>254</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>19</v>
@@ -1083,39 +1133,39 @@
       <c r="C19" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="12" t="n">
         <v>412</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="13" t="n">
         <v>306</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>19</v>
@@ -1123,19 +1173,19 @@
       <c r="C21" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="13" t="n">
         <v>495</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
+      <c r="A22" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1143,19 +1193,19 @@
       <c r="C22" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="12" t="n">
         <v>258</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
+      <c r="A23" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>19</v>
@@ -1163,19 +1213,19 @@
       <c r="C23" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="12" t="n">
         <v>417</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>22</v>
+      <c r="A24" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1183,19 +1233,19 @@
       <c r="C24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="13" t="n">
         <v>311</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>22</v>
+      <c r="A25" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>19</v>
@@ -1203,19 +1253,19 @@
       <c r="C25" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="13" t="n">
         <v>502</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>19</v>
+      <c r="A26" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1223,19 +1273,19 @@
       <c r="C26" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="12" t="n">
         <v>333</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>19</v>
+      <c r="A27" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>19</v>
@@ -1243,19 +1293,19 @@
       <c r="C27" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="12" t="n">
         <v>540</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>19</v>
+      <c r="A28" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1263,19 +1313,19 @@
       <c r="C28" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D28" s="13" t="n">
         <v>402</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>19</v>
+      <c r="A29" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>19</v>
@@ -1283,19 +1333,19 @@
       <c r="C29" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="13" t="n">
         <v>649</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>21</v>
+      <c r="A30" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1303,19 +1353,19 @@
       <c r="C30" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="12" t="n">
         <v>333</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>21</v>
+      <c r="A31" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>19</v>
@@ -1323,19 +1373,19 @@
       <c r="C31" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="12" t="n">
         <v>540</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>21</v>
+      <c r="A32" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1343,19 +1393,19 @@
       <c r="C32" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D32" s="13" t="n">
         <v>402</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>21</v>
+      <c r="A33" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>19</v>
@@ -1363,39 +1413,39 @@
       <c r="C33" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="13" t="n">
         <v>649</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="12" t="n">
         <v>338</v>
       </c>
       <c r="E34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>19</v>
@@ -1403,39 +1453,39 @@
       <c r="C35" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="12" t="n">
         <v>547</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D36" s="13" t="n">
         <v>408</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>19</v>
@@ -1443,19 +1493,19 @@
       <c r="C37" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="13" t="n">
         <v>658</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>19</v>
+      <c r="A38" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -1463,19 +1513,19 @@
       <c r="C38" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="12" t="n">
         <v>361</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>19</v>
+      <c r="A39" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>19</v>
@@ -1483,19 +1533,19 @@
       <c r="C39" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="12" t="n">
         <v>585</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>19</v>
+      <c r="A40" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -1503,19 +1553,19 @@
       <c r="C40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D40" s="11" t="n">
+      <c r="D40" s="13" t="n">
         <v>436</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>19</v>
+      <c r="A41" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>19</v>
@@ -1523,19 +1573,19 @@
       <c r="C41" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D41" s="11" t="n">
+      <c r="D41" s="13" t="n">
         <v>704</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>21</v>
+      <c r="A42" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -1543,19 +1593,19 @@
       <c r="C42" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D42" s="12" t="n">
         <v>361</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>21</v>
+      <c r="A43" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>19</v>
@@ -1563,19 +1613,19 @@
       <c r="C43" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D43" s="10" t="n">
+      <c r="D43" s="12" t="n">
         <v>585</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>21</v>
+      <c r="A44" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -1583,19 +1633,19 @@
       <c r="C44" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D44" s="13" t="n">
         <v>436</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>21</v>
+      <c r="A45" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>19</v>
@@ -1603,19 +1653,19 @@
       <c r="C45" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D45" s="11" t="n">
+      <c r="D45" s="13" t="n">
         <v>704</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>22</v>
+      <c r="A46" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -1623,19 +1673,19 @@
       <c r="C46" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D46" s="10" t="n">
+      <c r="D46" s="12" t="n">
         <v>367</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>22</v>
+      <c r="A47" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>19</v>
@@ -1643,19 +1693,19 @@
       <c r="C47" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D47" s="10" t="n">
+      <c r="D47" s="12" t="n">
         <v>593</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>22</v>
+      <c r="A48" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -1663,19 +1713,19 @@
       <c r="C48" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D48" s="11" t="n">
+      <c r="D48" s="13" t="n">
         <v>442</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>22</v>
+      <c r="A49" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>19</v>
@@ -1683,19 +1733,19 @@
       <c r="C49" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D49" s="11" t="n">
+      <c r="D49" s="13" t="n">
         <v>713</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>19</v>
+      <c r="A50" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -1703,19 +1753,19 @@
       <c r="C50" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="12" t="n">
         <v>494</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>19</v>
+      <c r="A51" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>19</v>
@@ -1723,19 +1773,19 @@
       <c r="C51" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D51" s="10" t="n">
+      <c r="D51" s="12" t="n">
         <v>800</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>19</v>
+      <c r="A52" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -1743,19 +1793,19 @@
       <c r="C52" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D52" s="11" t="n">
+      <c r="D52" s="13" t="n">
         <v>595</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>19</v>
+      <c r="A53" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>19</v>
@@ -1763,19 +1813,19 @@
       <c r="C53" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D53" s="11" t="n">
+      <c r="D53" s="13" t="n">
         <v>963</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>21</v>
+      <c r="A54" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
@@ -1783,19 +1833,19 @@
       <c r="C54" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="12" t="n">
         <v>494</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>21</v>
+      <c r="A55" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>19</v>
@@ -1803,19 +1853,19 @@
       <c r="C55" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D55" s="10" t="n">
+      <c r="D55" s="12" t="n">
         <v>800</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>21</v>
+      <c r="A56" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -1823,19 +1873,19 @@
       <c r="C56" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D56" s="11" t="n">
+      <c r="D56" s="13" t="n">
         <v>595</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>21</v>
+      <c r="A57" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>19</v>
@@ -1843,19 +1893,19 @@
       <c r="C57" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D57" s="11" t="n">
+      <c r="D57" s="13" t="n">
         <v>963</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>22</v>
+      <c r="A58" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -1863,19 +1913,19 @@
       <c r="C58" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="12" t="n">
         <v>501</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>22</v>
+      <c r="A59" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>19</v>
@@ -1883,19 +1933,19 @@
       <c r="C59" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D59" s="12" t="n">
         <v>811</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>22</v>
+      <c r="A60" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
@@ -1903,19 +1953,19 @@
       <c r="C60" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D60" s="11" t="n">
+      <c r="D60" s="13" t="n">
         <v>604</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>22</v>
+      <c r="A61" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>19</v>
@@ -1923,19 +1973,19 @@
       <c r="C61" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D61" s="11" t="n">
+      <c r="D61" s="13" t="n">
         <v>975</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>19</v>
+      <c r="A62" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0</v>
@@ -1943,19 +1993,19 @@
       <c r="C62" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D62" s="10" t="n">
+      <c r="D62" s="12" t="n">
         <v>705</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>19</v>
+      <c r="A63" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>19</v>
@@ -1963,19 +2013,19 @@
       <c r="C63" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D63" s="10" t="n">
+      <c r="D63" s="12" t="n">
         <v>1143</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>19</v>
+      <c r="A64" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0</v>
@@ -1983,19 +2033,19 @@
       <c r="C64" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D64" s="11" t="n">
+      <c r="D64" s="13" t="n">
         <v>850</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>19</v>
+      <c r="A65" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>19</v>
@@ -2003,19 +2053,19 @@
       <c r="C65" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D65" s="11" t="n">
+      <c r="D65" s="13" t="n">
         <v>1375</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>21</v>
+      <c r="A66" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0</v>
@@ -2023,19 +2073,19 @@
       <c r="C66" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D66" s="10" t="n">
+      <c r="D66" s="12" t="n">
         <v>705</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>21</v>
+      <c r="A67" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>19</v>
@@ -2043,19 +2093,19 @@
       <c r="C67" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D67" s="10" t="n">
+      <c r="D67" s="12" t="n">
         <v>1143</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
-        <v>21</v>
+      <c r="A68" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0</v>
@@ -2063,19 +2113,19 @@
       <c r="C68" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D68" s="11" t="n">
+      <c r="D68" s="13" t="n">
         <v>850</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
-        <v>21</v>
+      <c r="A69" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>19</v>
@@ -2083,19 +2133,19 @@
       <c r="C69" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D69" s="11" t="n">
+      <c r="D69" s="13" t="n">
         <v>1375</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>22</v>
+      <c r="A70" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0</v>
@@ -2103,19 +2153,19 @@
       <c r="C70" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D70" s="10" t="n">
+      <c r="D70" s="12" t="n">
         <v>715</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>22</v>
+      <c r="A71" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>19</v>
@@ -2123,19 +2173,19 @@
       <c r="C71" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D71" s="10" t="n">
+      <c r="D71" s="12" t="n">
         <v>1158</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>22</v>
+      <c r="A72" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0</v>
@@ -2143,19 +2193,19 @@
       <c r="C72" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D72" s="11" t="n">
+      <c r="D72" s="13" t="n">
         <v>863</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>22</v>
+      <c r="A73" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>19</v>
@@ -2163,14 +2213,14 @@
       <c r="C73" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D73" s="11" t="n">
+      <c r="D73" s="13" t="n">
         <v>1393</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2189,29 +2239,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="92.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1023" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="92.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2220,223 +2269,235 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="7"/>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="7"/>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="5"/>
-      <c r="K5" s="7"/>
-      <c r="AMJ5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="6"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="6"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="6"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="8"/>
+      <c r="H10" s="6"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="K11" s="15"/>
-      <c r="AMJ11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="9"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="6"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
-      <c r="C13" s="7"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="9"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="0"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="K15" s="15"/>
-      <c r="AMJ15" s="0"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="6"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="6"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2456,41 +2517,41 @@
   </sheetPr>
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
+      <c r="A2" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>18</v>
@@ -2498,22 +2559,22 @@
       <c r="C2" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="D2" s="20" t="n">
         <v>1281</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
+      <c r="A3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>35</v>
@@ -2521,22 +2582,22 @@
       <c r="C3" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="20" t="n">
         <v>1463</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
+      <c r="A4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>18</v>
@@ -2544,22 +2605,22 @@
       <c r="C4" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="20" t="n">
         <v>2700</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
+      <c r="A5" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>35</v>
@@ -2567,22 +2628,22 @@
       <c r="C5" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="20" t="n">
         <v>3020</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
+      <c r="A6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>18</v>
@@ -2590,22 +2651,22 @@
       <c r="C6" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="20" t="n">
         <v>3674</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>19</v>
+      <c r="A7" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -2613,22 +2674,22 @@
       <c r="C7" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="20" t="n">
         <v>4019</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
+      <c r="A8" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>18</v>
@@ -2636,22 +2697,22 @@
       <c r="C8" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="20" t="n">
         <v>1281</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>21</v>
+      <c r="A9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>35</v>
@@ -2659,22 +2720,22 @@
       <c r="C9" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="20" t="n">
         <v>1463</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>21</v>
+      <c r="A10" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>18</v>
@@ -2682,22 +2743,22 @@
       <c r="C10" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="20" t="n">
         <v>2700</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
+      <c r="A11" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>35</v>
@@ -2705,22 +2766,22 @@
       <c r="C11" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="20" t="n">
         <v>3020</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>21</v>
+      <c r="A12" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>18</v>
@@ -2728,22 +2789,22 @@
       <c r="C12" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="20" t="n">
         <v>3674</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>21</v>
+      <c r="A13" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>35</v>
@@ -2751,22 +2812,22 @@
       <c r="C13" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="20" t="n">
         <v>4019</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
+      <c r="A14" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>18</v>
@@ -2774,22 +2835,22 @@
       <c r="C14" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="20" t="n">
         <v>1299</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
+      <c r="A15" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>35</v>
@@ -2797,22 +2858,22 @@
       <c r="C15" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="20" t="n">
         <v>1484</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>22</v>
+      <c r="A16" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>18</v>
@@ -2820,22 +2881,22 @@
       <c r="C16" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="20" t="n">
         <v>2738</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>22</v>
+      <c r="A17" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>35</v>
@@ -2843,22 +2904,22 @@
       <c r="C17" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="D17" s="20" t="n">
         <v>3062</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
+      <c r="A18" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>18</v>
@@ -2866,22 +2927,22 @@
       <c r="C18" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="20" t="n">
         <v>3725</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>22</v>
+      <c r="A19" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>35</v>
@@ -2889,22 +2950,22 @@
       <c r="C19" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="20" t="n">
         <v>4074</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>19</v>
+      <c r="A20" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>18</v>
@@ -2912,22 +2973,22 @@
       <c r="C20" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="20" t="n">
         <v>1153</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
+      <c r="A21" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>35</v>
@@ -2935,22 +2996,22 @@
       <c r="C21" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="13" t="n">
         <v>1317</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>19</v>
+      <c r="A22" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>18</v>
@@ -2958,22 +3019,22 @@
       <c r="C22" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="14" t="n">
         <v>2430</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>19</v>
+      <c r="A23" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>35</v>
@@ -2981,22 +3042,22 @@
       <c r="C23" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="14" t="n">
         <v>2718</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>19</v>
+      <c r="A24" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>18</v>
@@ -3004,22 +3065,22 @@
       <c r="C24" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="12" t="n">
         <v>3307</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>19</v>
+      <c r="A25" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>35</v>
@@ -3027,22 +3088,22 @@
       <c r="C25" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="12" t="n">
         <v>3618</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>18</v>
@@ -3050,22 +3111,22 @@
       <c r="C26" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D26" s="18" t="n">
+      <c r="D26" s="20" t="n">
         <v>1153</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>35</v>
@@ -3073,22 +3134,22 @@
       <c r="C27" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="13" t="n">
         <v>1317</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>18</v>
@@ -3096,22 +3157,22 @@
       <c r="C28" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="14" t="n">
         <v>2430</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>35</v>
@@ -3119,22 +3180,22 @@
       <c r="C29" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="14" t="n">
         <v>2718</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>18</v>
@@ -3142,22 +3203,22 @@
       <c r="C30" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="12" t="n">
         <v>3307</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>35</v>
@@ -3165,22 +3226,22 @@
       <c r="C31" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="12" t="n">
         <v>3618</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>22</v>
+      <c r="A32" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>18</v>
@@ -3188,22 +3249,22 @@
       <c r="C32" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D32" s="13" t="n">
         <v>1170</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>22</v>
+      <c r="A33" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>35</v>
@@ -3211,22 +3272,22 @@
       <c r="C33" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="13" t="n">
         <v>1336</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>22</v>
+      <c r="A34" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>18</v>
@@ -3234,22 +3295,22 @@
       <c r="C34" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="14" t="n">
         <v>2465</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>22</v>
+      <c r="A35" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>35</v>
@@ -3257,22 +3318,22 @@
       <c r="C35" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="14" t="n">
         <v>2756</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>22</v>
+      <c r="A36" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>18</v>
@@ -3280,22 +3341,22 @@
       <c r="C36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="12" t="n">
         <v>3353</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>22</v>
+      <c r="A37" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>35</v>
@@ -3303,22 +3364,22 @@
       <c r="C37" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="12" t="n">
         <v>3667</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>19</v>
+      <c r="A38" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>18</v>
@@ -3326,22 +3387,22 @@
       <c r="C38" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D38" s="13" t="n">
         <v>1512</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>19</v>
+      <c r="A39" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>35</v>
@@ -3349,22 +3410,22 @@
       <c r="C39" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D39" s="11" t="n">
+      <c r="D39" s="13" t="n">
         <v>1727</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>19</v>
+      <c r="A40" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>18</v>
@@ -3372,22 +3433,22 @@
       <c r="C40" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="14" t="n">
         <v>3186</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>19</v>
+      <c r="A41" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>35</v>
@@ -3395,22 +3456,22 @@
       <c r="C41" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="14" t="n">
         <v>3564</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>19</v>
+      <c r="A42" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>18</v>
@@ -3418,22 +3479,22 @@
       <c r="C42" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D42" s="12" t="n">
         <v>4336</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>19</v>
+      <c r="A43" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>35</v>
@@ -3441,22 +3502,22 @@
       <c r="C43" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D43" s="10" t="n">
+      <c r="D43" s="12" t="n">
         <v>4743</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>21</v>
+      <c r="A44" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>18</v>
@@ -3464,22 +3525,22 @@
       <c r="C44" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D44" s="13" t="n">
         <v>1512</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>21</v>
+      <c r="A45" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>35</v>
@@ -3487,22 +3548,22 @@
       <c r="C45" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D45" s="11" t="n">
+      <c r="D45" s="13" t="n">
         <v>1727</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>21</v>
+      <c r="A46" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>18</v>
@@ -3510,22 +3571,22 @@
       <c r="C46" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="14" t="n">
         <v>3186</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>21</v>
+      <c r="A47" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>35</v>
@@ -3533,22 +3594,22 @@
       <c r="C47" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="14" t="n">
         <v>3564</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>21</v>
+      <c r="A48" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>18</v>
@@ -3556,22 +3617,22 @@
       <c r="C48" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D48" s="10" t="n">
+      <c r="D48" s="12" t="n">
         <v>4336</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>21</v>
+      <c r="A49" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>35</v>
@@ -3579,22 +3640,22 @@
       <c r="C49" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D49" s="12" t="n">
         <v>4743</v>
       </c>
       <c r="E49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>18</v>
@@ -3602,22 +3663,22 @@
       <c r="C50" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="D50" s="13" t="n">
         <v>1533</v>
       </c>
       <c r="E50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>35</v>
@@ -3625,22 +3686,22 @@
       <c r="C51" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D51" s="11" t="n">
+      <c r="D51" s="13" t="n">
         <v>1752</v>
       </c>
       <c r="E51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>18</v>
@@ -3648,22 +3709,22 @@
       <c r="C52" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="14" t="n">
         <v>3231</v>
       </c>
       <c r="E52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>35</v>
@@ -3671,22 +3732,22 @@
       <c r="C53" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D53" s="12" t="n">
+      <c r="D53" s="14" t="n">
         <v>3614</v>
       </c>
       <c r="E53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>18</v>
@@ -3694,22 +3755,22 @@
       <c r="C54" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="12" t="n">
         <v>4396</v>
       </c>
       <c r="E54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>35</v>
@@ -3717,22 +3778,22 @@
       <c r="C55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D55" s="10" t="n">
+      <c r="D55" s="12" t="n">
         <v>4808</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>19</v>
+      <c r="A56" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>18</v>
@@ -3740,22 +3801,22 @@
       <c r="C56" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D56" s="11" t="n">
+      <c r="D56" s="13" t="n">
         <v>1640</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>19</v>
+      <c r="A57" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>35</v>
@@ -3763,22 +3824,22 @@
       <c r="C57" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D57" s="11" t="n">
+      <c r="D57" s="13" t="n">
         <v>1873</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>19</v>
+      <c r="A58" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>18</v>
@@ -3786,22 +3847,22 @@
       <c r="C58" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D58" s="12" t="n">
+      <c r="D58" s="14" t="n">
         <v>3456</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>19</v>
+      <c r="A59" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>35</v>
@@ -3809,22 +3870,22 @@
       <c r="C59" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D59" s="12" t="n">
+      <c r="D59" s="14" t="n">
         <v>3866</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>19</v>
+      <c r="A60" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>18</v>
@@ -3832,22 +3893,22 @@
       <c r="C60" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D60" s="10" t="n">
+      <c r="D60" s="12" t="n">
         <v>4703</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>19</v>
+      <c r="A61" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>35</v>
@@ -3855,22 +3916,22 @@
       <c r="C61" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D61" s="10" t="n">
+      <c r="D61" s="12" t="n">
         <v>5145</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>21</v>
+      <c r="A62" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>18</v>
@@ -3878,22 +3939,22 @@
       <c r="C62" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D62" s="11" t="n">
+      <c r="D62" s="13" t="n">
         <v>1640</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>21</v>
+      <c r="A63" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>35</v>
@@ -3901,22 +3962,22 @@
       <c r="C63" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D63" s="11" t="n">
+      <c r="D63" s="13" t="n">
         <v>1873</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>21</v>
+      <c r="A64" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>18</v>
@@ -3924,22 +3985,22 @@
       <c r="C64" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D64" s="12" t="n">
+      <c r="D64" s="14" t="n">
         <v>3456</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>21</v>
+      <c r="A65" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>35</v>
@@ -3947,22 +4008,22 @@
       <c r="C65" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D65" s="12" t="n">
+      <c r="D65" s="14" t="n">
         <v>3866</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>21</v>
+      <c r="A66" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>18</v>
@@ -3970,22 +4031,22 @@
       <c r="C66" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D66" s="10" t="n">
+      <c r="D66" s="12" t="n">
         <v>4703</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>21</v>
+      <c r="A67" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>35</v>
@@ -3993,22 +4054,22 @@
       <c r="C67" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D67" s="10" t="n">
+      <c r="D67" s="12" t="n">
         <v>5145</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
-        <v>22</v>
+      <c r="A68" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>18</v>
@@ -4016,22 +4077,22 @@
       <c r="C68" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D68" s="11" t="n">
+      <c r="D68" s="13" t="n">
         <v>1663</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
-        <v>22</v>
+      <c r="A69" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>35</v>
@@ -4039,22 +4100,22 @@
       <c r="C69" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D69" s="11" t="n">
+      <c r="D69" s="13" t="n">
         <v>1900</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>22</v>
+      <c r="A70" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>18</v>
@@ -4062,22 +4123,22 @@
       <c r="C70" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D70" s="12" t="n">
+      <c r="D70" s="14" t="n">
         <v>3505</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>22</v>
+      <c r="A71" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>35</v>
@@ -4085,22 +4146,22 @@
       <c r="C71" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D71" s="12" t="n">
+      <c r="D71" s="14" t="n">
         <v>3920</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>22</v>
+      <c r="A72" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>18</v>
@@ -4108,22 +4169,22 @@
       <c r="C72" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D72" s="10" t="n">
+      <c r="D72" s="12" t="n">
         <v>4768</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>22</v>
+      <c r="A73" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>35</v>
@@ -4131,22 +4192,22 @@
       <c r="C73" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D73" s="10" t="n">
+      <c r="D73" s="12" t="n">
         <v>5215</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
-        <v>19</v>
+      <c r="A74" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>18</v>
@@ -4154,22 +4215,22 @@
       <c r="C74" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D74" s="11" t="n">
+      <c r="D74" s="13" t="n">
         <v>2242</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>19</v>
+      <c r="A75" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>35</v>
@@ -4177,22 +4238,22 @@
       <c r="C75" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D75" s="11" t="n">
+      <c r="D75" s="13" t="n">
         <v>2561</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
-        <v>19</v>
+      <c r="A76" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>18</v>
@@ -4200,22 +4261,22 @@
       <c r="C76" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D76" s="12" t="n">
+      <c r="D76" s="14" t="n">
         <v>4725</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
-        <v>19</v>
+      <c r="A77" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>35</v>
@@ -4223,22 +4284,22 @@
       <c r="C77" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D77" s="12" t="n">
+      <c r="D77" s="14" t="n">
         <v>5285</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
-        <v>19</v>
+      <c r="A78" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>18</v>
@@ -4246,22 +4307,22 @@
       <c r="C78" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D78" s="10" t="n">
+      <c r="D78" s="12" t="n">
         <v>6430</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
-        <v>19</v>
+      <c r="A79" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>35</v>
@@ -4269,22 +4330,22 @@
       <c r="C79" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D79" s="10" t="n">
+      <c r="D79" s="12" t="n">
         <v>7034</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
-        <v>21</v>
+      <c r="A80" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>18</v>
@@ -4292,22 +4353,22 @@
       <c r="C80" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D80" s="11" t="n">
+      <c r="D80" s="13" t="n">
         <v>2242</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
-        <v>21</v>
+      <c r="A81" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>35</v>
@@ -4315,22 +4376,22 @@
       <c r="C81" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D81" s="11" t="n">
+      <c r="D81" s="13" t="n">
         <v>2561</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
-        <v>21</v>
+      <c r="A82" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>18</v>
@@ -4338,22 +4399,22 @@
       <c r="C82" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D82" s="12" t="n">
+      <c r="D82" s="14" t="n">
         <v>4725</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
-        <v>21</v>
+      <c r="A83" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>35</v>
@@ -4361,22 +4422,22 @@
       <c r="C83" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D83" s="12" t="n">
+      <c r="D83" s="14" t="n">
         <v>5285</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
-        <v>21</v>
+      <c r="A84" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>18</v>
@@ -4384,22 +4445,22 @@
       <c r="C84" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D84" s="10" t="n">
+      <c r="D84" s="12" t="n">
         <v>6430</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
-        <v>21</v>
+      <c r="A85" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>35</v>
@@ -4407,22 +4468,22 @@
       <c r="C85" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D85" s="10" t="n">
+      <c r="D85" s="12" t="n">
         <v>7034</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
-        <v>22</v>
+      <c r="A86" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>18</v>
@@ -4430,22 +4491,22 @@
       <c r="C86" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D86" s="11" t="n">
+      <c r="D86" s="13" t="n">
         <v>2274</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
-        <v>22</v>
+      <c r="A87" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>35</v>
@@ -4453,22 +4514,22 @@
       <c r="C87" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D87" s="11" t="n">
+      <c r="D87" s="13" t="n">
         <v>2597</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
-        <v>22</v>
+      <c r="A88" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>18</v>
@@ -4476,22 +4537,22 @@
       <c r="C88" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D88" s="12" t="n">
+      <c r="D88" s="14" t="n">
         <v>4792</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
-        <v>22</v>
+      <c r="A89" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>35</v>
@@ -4499,22 +4560,22 @@
       <c r="C89" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D89" s="12" t="n">
+      <c r="D89" s="14" t="n">
         <v>5359</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
-        <v>22</v>
+      <c r="A90" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>18</v>
@@ -4522,22 +4583,22 @@
       <c r="C90" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D90" s="10" t="n">
+      <c r="D90" s="12" t="n">
         <v>6519</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
-        <v>22</v>
+      <c r="A91" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>35</v>
@@ -4545,22 +4606,22 @@
       <c r="C91" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D91" s="10" t="n">
+      <c r="D91" s="12" t="n">
         <v>7130</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
-        <v>19</v>
+      <c r="A92" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>18</v>
@@ -4568,22 +4629,22 @@
       <c r="C92" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D92" s="11" t="n">
+      <c r="D92" s="13" t="n">
         <v>3203</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
-        <v>19</v>
+      <c r="A93" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>35</v>
@@ -4591,22 +4652,22 @@
       <c r="C93" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D93" s="11" t="n">
+      <c r="D93" s="13" t="n">
         <v>3658</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
-        <v>19</v>
+      <c r="A94" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>18</v>
@@ -4614,22 +4675,22 @@
       <c r="C94" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D94" s="12" t="n">
+      <c r="D94" s="14" t="n">
         <v>6750</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
-        <v>19</v>
+      <c r="A95" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>35</v>
@@ -4637,22 +4698,22 @@
       <c r="C95" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D95" s="12" t="n">
+      <c r="D95" s="14" t="n">
         <v>7550</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
-        <v>19</v>
+      <c r="A96" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>18</v>
@@ -4660,22 +4721,22 @@
       <c r="C96" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D96" s="10" t="n">
+      <c r="D96" s="12" t="n">
         <v>9185</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
-        <v>19</v>
+      <c r="A97" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>35</v>
@@ -4683,22 +4744,22 @@
       <c r="C97" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D97" s="10" t="n">
+      <c r="D97" s="12" t="n">
         <v>10048</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
-        <v>21</v>
+      <c r="A98" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>18</v>
@@ -4706,22 +4767,22 @@
       <c r="C98" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D98" s="11" t="n">
+      <c r="D98" s="13" t="n">
         <v>3203</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
-        <v>21</v>
+      <c r="A99" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>35</v>
@@ -4729,22 +4790,22 @@
       <c r="C99" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D99" s="11" t="n">
+      <c r="D99" s="13" t="n">
         <v>3658</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
-        <v>21</v>
+      <c r="A100" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>18</v>
@@ -4752,22 +4813,22 @@
       <c r="C100" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D100" s="12" t="n">
+      <c r="D100" s="14" t="n">
         <v>6750</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
-        <v>21</v>
+      <c r="A101" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>35</v>
@@ -4775,22 +4836,22 @@
       <c r="C101" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D101" s="12" t="n">
+      <c r="D101" s="14" t="n">
         <v>7550</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
-        <v>21</v>
+      <c r="A102" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>18</v>
@@ -4798,22 +4859,22 @@
       <c r="C102" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D102" s="10" t="n">
+      <c r="D102" s="12" t="n">
         <v>9185</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
-        <v>21</v>
+      <c r="A103" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>35</v>
@@ -4821,22 +4882,22 @@
       <c r="C103" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D103" s="10" t="n">
+      <c r="D103" s="12" t="n">
         <v>10048</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
-        <v>22</v>
+      <c r="A104" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>18</v>
@@ -4844,22 +4905,22 @@
       <c r="C104" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D104" s="11" t="n">
+      <c r="D104" s="13" t="n">
         <v>3248</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
-        <v>22</v>
+      <c r="A105" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>35</v>
@@ -4867,22 +4928,22 @@
       <c r="C105" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D105" s="11" t="n">
+      <c r="D105" s="13" t="n">
         <v>3710</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
-        <v>22</v>
+      <c r="A106" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>18</v>
@@ -4890,22 +4951,22 @@
       <c r="C106" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D106" s="12" t="n">
+      <c r="D106" s="14" t="n">
         <v>6845</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
-        <v>22</v>
+      <c r="A107" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>35</v>
@@ -4913,22 +4974,22 @@
       <c r="C107" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D107" s="12" t="n">
+      <c r="D107" s="14" t="n">
         <v>7655</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
-        <v>22</v>
+      <c r="A108" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>18</v>
@@ -4936,22 +4997,22 @@
       <c r="C108" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D108" s="10" t="n">
+      <c r="D108" s="12" t="n">
         <v>9313</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
-        <v>22</v>
+      <c r="A109" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>35</v>
@@ -4959,17 +5020,17 @@
       <c r="C109" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D109" s="10" t="n">
+      <c r="D109" s="12" t="n">
         <v>10185</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4990,363 +5051,363 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>38</v>
+      <c r="F2" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="5" t="n">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>38</v>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="5" t="n">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>38</v>
+      <c r="F4" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="n">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>41</v>
+      <c r="F6" s="22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>41</v>
+      <c r="F7" s="22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="n">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>42</v>
+      <c r="F8" s="23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="5" t="n">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>42</v>
+      <c r="F10" s="23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="5" t="n">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>43</v>
+      <c r="F11" s="23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="5" t="n">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>43</v>
+      <c r="F12" s="23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5" t="n">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>43</v>
+      <c r="F13" s="23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="5" t="n">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>44</v>
+      <c r="F14" s="23" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="5" t="n">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>44</v>
+      <c r="F15" s="23" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5" t="n">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>44</v>
+      <c r="F16" s="23" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5367,49 +5428,49 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="C2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5417,24 +5478,24 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="C3" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5442,24 +5503,24 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="C4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5467,11 +5528,371 @@
         <v>7.5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.8"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.85"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/IMG_ROW/addons.xlsx
+++ b/Inputs/IMG_ROW/addons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dental" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="61">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
   </si>
   <si>
     <t xml:space="preserve">Maternity-Addon</t>
@@ -248,13 +254,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -322,13 +327,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF222222"/>
@@ -364,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -377,20 +375,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -425,7 +409,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,18 +458,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -506,15 +478,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,15 +490,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -618,7 +586,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="69.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.02"/>
@@ -752,13 +720,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D86" activeCellId="0" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.13"/>
   </cols>
@@ -783,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -793,8 +761,8 @@
       <c r="C2" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="n">
-        <v>282</v>
+      <c r="D2" s="2" t="n">
+        <v>296</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>22</v>
@@ -803,7 +771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -813,8 +781,8 @@
       <c r="C3" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D3" s="12" t="n">
-        <v>457</v>
+      <c r="D3" s="2" t="n">
+        <v>480</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>22</v>
@@ -823,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
@@ -833,8 +801,8 @@
       <c r="C4" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D4" s="13" t="n">
-        <v>340</v>
+      <c r="D4" s="2" t="n">
+        <v>357</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>22</v>
@@ -843,7 +811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -853,8 +821,8 @@
       <c r="C5" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D5" s="13" t="n">
-        <v>550</v>
+      <c r="D5" s="2" t="n">
+        <v>578</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>22</v>
@@ -863,7 +831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -873,8 +841,8 @@
       <c r="C6" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="n">
-        <v>282</v>
+      <c r="D6" s="2" t="n">
+        <v>296</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>22</v>
@@ -883,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -893,8 +861,8 @@
       <c r="C7" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D7" s="12" t="n">
-        <v>457</v>
+      <c r="D7" s="2" t="n">
+        <v>480</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>22</v>
@@ -903,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -913,8 +881,8 @@
       <c r="C8" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="n">
-        <v>340</v>
+      <c r="D8" s="2" t="n">
+        <v>357</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>22</v>
@@ -923,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -933,8 +901,8 @@
       <c r="C9" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D9" s="13" t="n">
-        <v>550</v>
+      <c r="D9" s="2" t="n">
+        <v>578</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>22</v>
@@ -943,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -953,8 +921,8 @@
       <c r="C10" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D10" s="14" t="n">
-        <v>286</v>
+      <c r="D10" s="2" t="n">
+        <v>305</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>22</v>
@@ -963,7 +931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -973,8 +941,8 @@
       <c r="C11" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D11" s="14" t="n">
-        <v>463</v>
+      <c r="D11" s="2" t="n">
+        <v>493</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>22</v>
@@ -983,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -993,8 +961,8 @@
       <c r="C12" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D12" s="14" t="n">
-        <v>345</v>
+      <c r="D12" s="2" t="n">
+        <v>367</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>22</v>
@@ -1003,7 +971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
@@ -1013,8 +981,8 @@
       <c r="C13" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D13" s="14" t="n">
-        <v>557</v>
+      <c r="D13" s="2" t="n">
+        <v>593</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>22</v>
@@ -1033,8 +1001,8 @@
       <c r="C14" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D14" s="12" t="n">
-        <v>254</v>
+      <c r="D14" s="2" t="n">
+        <v>267</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>25</v>
@@ -1053,8 +1021,8 @@
       <c r="C15" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D15" s="12" t="n">
-        <v>412</v>
+      <c r="D15" s="2" t="n">
+        <v>432</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>25</v>
@@ -1073,8 +1041,8 @@
       <c r="C16" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D16" s="13" t="n">
-        <v>306</v>
+      <c r="D16" s="2" t="n">
+        <v>322</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>25</v>
@@ -1093,8 +1061,8 @@
       <c r="C17" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D17" s="13" t="n">
-        <v>495</v>
+      <c r="D17" s="2" t="n">
+        <v>521</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>25</v>
@@ -1113,8 +1081,8 @@
       <c r="C18" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D18" s="12" t="n">
-        <v>254</v>
+      <c r="D18" s="2" t="n">
+        <v>267</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>25</v>
@@ -1133,8 +1101,8 @@
       <c r="C19" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D19" s="12" t="n">
-        <v>412</v>
+      <c r="D19" s="2" t="n">
+        <v>432</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>25</v>
@@ -1153,8 +1121,8 @@
       <c r="C20" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D20" s="13" t="n">
-        <v>306</v>
+      <c r="D20" s="2" t="n">
+        <v>322</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>25</v>
@@ -1173,8 +1141,8 @@
       <c r="C21" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D21" s="13" t="n">
-        <v>495</v>
+      <c r="D21" s="2" t="n">
+        <v>521</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>25</v>
@@ -1193,8 +1161,8 @@
       <c r="C22" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D22" s="12" t="n">
-        <v>258</v>
+      <c r="D22" s="2" t="n">
+        <v>275</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>25</v>
@@ -1213,8 +1181,8 @@
       <c r="C23" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D23" s="12" t="n">
-        <v>417</v>
+      <c r="D23" s="2" t="n">
+        <v>444</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>25</v>
@@ -1233,8 +1201,8 @@
       <c r="C24" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D24" s="13" t="n">
-        <v>311</v>
+      <c r="D24" s="2" t="n">
+        <v>331</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>25</v>
@@ -1253,8 +1221,8 @@
       <c r="C25" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D25" s="13" t="n">
-        <v>502</v>
+      <c r="D25" s="2" t="n">
+        <v>534</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>25</v>
@@ -1273,8 +1241,8 @@
       <c r="C26" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D26" s="12" t="n">
-        <v>333</v>
+      <c r="D26" s="2" t="n">
+        <v>350</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>26</v>
@@ -1293,8 +1261,8 @@
       <c r="C27" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D27" s="12" t="n">
-        <v>540</v>
+      <c r="D27" s="2" t="n">
+        <v>567</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>26</v>
@@ -1313,8 +1281,8 @@
       <c r="C28" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D28" s="13" t="n">
-        <v>402</v>
+      <c r="D28" s="2" t="n">
+        <v>422</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>26</v>
@@ -1333,8 +1301,8 @@
       <c r="C29" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D29" s="13" t="n">
-        <v>649</v>
+      <c r="D29" s="2" t="n">
+        <v>683</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>26</v>
@@ -1353,8 +1321,8 @@
       <c r="C30" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D30" s="12" t="n">
-        <v>333</v>
+      <c r="D30" s="2" t="n">
+        <v>350</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>26</v>
@@ -1373,8 +1341,8 @@
       <c r="C31" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D31" s="12" t="n">
-        <v>540</v>
+      <c r="D31" s="2" t="n">
+        <v>567</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>26</v>
@@ -1393,8 +1361,8 @@
       <c r="C32" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D32" s="13" t="n">
-        <v>402</v>
+      <c r="D32" s="2" t="n">
+        <v>422</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>26</v>
@@ -1413,8 +1381,8 @@
       <c r="C33" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D33" s="13" t="n">
-        <v>649</v>
+      <c r="D33" s="2" t="n">
+        <v>683</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>26</v>
@@ -1433,8 +1401,8 @@
       <c r="C34" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D34" s="12" t="n">
-        <v>338</v>
+      <c r="D34" s="2" t="n">
+        <v>360</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>26</v>
@@ -1453,8 +1421,8 @@
       <c r="C35" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D35" s="12" t="n">
-        <v>547</v>
+      <c r="D35" s="2" t="n">
+        <v>582</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>26</v>
@@ -1473,8 +1441,8 @@
       <c r="C36" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D36" s="13" t="n">
-        <v>408</v>
+      <c r="D36" s="2" t="n">
+        <v>434</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>26</v>
@@ -1493,8 +1461,8 @@
       <c r="C37" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D37" s="13" t="n">
-        <v>658</v>
+      <c r="D37" s="2" t="n">
+        <v>700</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>26</v>
@@ -1513,8 +1481,8 @@
       <c r="C38" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D38" s="12" t="n">
-        <v>361</v>
+      <c r="D38" s="2" t="n">
+        <v>379</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>27</v>
@@ -1533,8 +1501,8 @@
       <c r="C39" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D39" s="12" t="n">
-        <v>585</v>
+      <c r="D39" s="2" t="n">
+        <v>615</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>27</v>
@@ -1553,8 +1521,8 @@
       <c r="C40" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D40" s="13" t="n">
-        <v>436</v>
+      <c r="D40" s="2" t="n">
+        <v>457</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>27</v>
@@ -1573,8 +1541,8 @@
       <c r="C41" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D41" s="13" t="n">
-        <v>704</v>
+      <c r="D41" s="2" t="n">
+        <v>740</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>27</v>
@@ -1593,8 +1561,8 @@
       <c r="C42" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D42" s="12" t="n">
-        <v>361</v>
+      <c r="D42" s="2" t="n">
+        <v>379</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>27</v>
@@ -1613,8 +1581,8 @@
       <c r="C43" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D43" s="12" t="n">
-        <v>585</v>
+      <c r="D43" s="2" t="n">
+        <v>615</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>27</v>
@@ -1633,8 +1601,8 @@
       <c r="C44" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D44" s="13" t="n">
-        <v>436</v>
+      <c r="D44" s="2" t="n">
+        <v>457</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>27</v>
@@ -1653,8 +1621,8 @@
       <c r="C45" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D45" s="13" t="n">
-        <v>704</v>
+      <c r="D45" s="2" t="n">
+        <v>740</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>27</v>
@@ -1673,8 +1641,8 @@
       <c r="C46" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D46" s="12" t="n">
-        <v>367</v>
+      <c r="D46" s="2" t="n">
+        <v>391</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>27</v>
@@ -1693,8 +1661,8 @@
       <c r="C47" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D47" s="12" t="n">
-        <v>593</v>
+      <c r="D47" s="2" t="n">
+        <v>632</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>27</v>
@@ -1713,8 +1681,8 @@
       <c r="C48" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D48" s="13" t="n">
-        <v>442</v>
+      <c r="D48" s="2" t="n">
+        <v>470</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>27</v>
@@ -1733,8 +1701,8 @@
       <c r="C49" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D49" s="13" t="n">
-        <v>713</v>
+      <c r="D49" s="2" t="n">
+        <v>760</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>27</v>
@@ -1753,8 +1721,8 @@
       <c r="C50" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D50" s="12" t="n">
-        <v>494</v>
+      <c r="D50" s="2" t="n">
+        <v>518</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>28</v>
@@ -1773,8 +1741,8 @@
       <c r="C51" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D51" s="12" t="n">
-        <v>800</v>
+      <c r="D51" s="2" t="n">
+        <v>840</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>28</v>
@@ -1793,8 +1761,8 @@
       <c r="C52" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D52" s="13" t="n">
-        <v>595</v>
+      <c r="D52" s="2" t="n">
+        <v>625</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>28</v>
@@ -1813,8 +1781,8 @@
       <c r="C53" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D53" s="13" t="n">
-        <v>963</v>
+      <c r="D53" s="2" t="n">
+        <v>1012</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>28</v>
@@ -1833,8 +1801,8 @@
       <c r="C54" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D54" s="12" t="n">
-        <v>494</v>
+      <c r="D54" s="2" t="n">
+        <v>518</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>28</v>
@@ -1853,8 +1821,8 @@
       <c r="C55" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D55" s="12" t="n">
-        <v>800</v>
+      <c r="D55" s="2" t="n">
+        <v>840</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>28</v>
@@ -1873,8 +1841,8 @@
       <c r="C56" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D56" s="13" t="n">
-        <v>595</v>
+      <c r="D56" s="2" t="n">
+        <v>625</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>28</v>
@@ -1893,8 +1861,8 @@
       <c r="C57" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D57" s="13" t="n">
-        <v>963</v>
+      <c r="D57" s="2" t="n">
+        <v>1012</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>28</v>
@@ -1913,8 +1881,8 @@
       <c r="C58" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D58" s="12" t="n">
-        <v>501</v>
+      <c r="D58" s="2" t="n">
+        <v>534</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>28</v>
@@ -1933,8 +1901,8 @@
       <c r="C59" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D59" s="12" t="n">
-        <v>811</v>
+      <c r="D59" s="2" t="n">
+        <v>863</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>28</v>
@@ -1953,8 +1921,8 @@
       <c r="C60" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D60" s="13" t="n">
-        <v>604</v>
+      <c r="D60" s="2" t="n">
+        <v>643</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>28</v>
@@ -1973,8 +1941,8 @@
       <c r="C61" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D61" s="13" t="n">
-        <v>975</v>
+      <c r="D61" s="2" t="n">
+        <v>1038</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>28</v>
@@ -1993,8 +1961,8 @@
       <c r="C62" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D62" s="12" t="n">
-        <v>705</v>
+      <c r="D62" s="2" t="n">
+        <v>740</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>29</v>
@@ -2013,8 +1981,8 @@
       <c r="C63" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D63" s="12" t="n">
-        <v>1143</v>
+      <c r="D63" s="2" t="n">
+        <v>1200</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>29</v>
@@ -2033,8 +2001,8 @@
       <c r="C64" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D64" s="13" t="n">
-        <v>850</v>
+      <c r="D64" s="2" t="n">
+        <v>893</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>29</v>
@@ -2053,8 +2021,8 @@
       <c r="C65" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D65" s="13" t="n">
-        <v>1375</v>
+      <c r="D65" s="2" t="n">
+        <v>1445</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>29</v>
@@ -2073,8 +2041,8 @@
       <c r="C66" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D66" s="12" t="n">
-        <v>705</v>
+      <c r="D66" s="2" t="n">
+        <v>740</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>29</v>
@@ -2093,8 +2061,8 @@
       <c r="C67" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D67" s="12" t="n">
-        <v>1143</v>
+      <c r="D67" s="2" t="n">
+        <v>1200</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>29</v>
@@ -2113,8 +2081,8 @@
       <c r="C68" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D68" s="13" t="n">
-        <v>850</v>
+      <c r="D68" s="2" t="n">
+        <v>893</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>29</v>
@@ -2133,8 +2101,8 @@
       <c r="C69" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D69" s="13" t="n">
-        <v>1375</v>
+      <c r="D69" s="2" t="n">
+        <v>1445</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>29</v>
@@ -2153,8 +2121,8 @@
       <c r="C70" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D70" s="12" t="n">
-        <v>715</v>
+      <c r="D70" s="2" t="n">
+        <v>763</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>29</v>
@@ -2173,8 +2141,8 @@
       <c r="C71" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D71" s="12" t="n">
-        <v>1158</v>
+      <c r="D71" s="2" t="n">
+        <v>1233</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>29</v>
@@ -2193,8 +2161,8 @@
       <c r="C72" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D72" s="13" t="n">
-        <v>863</v>
+      <c r="D72" s="2" t="n">
+        <v>918</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>29</v>
@@ -2213,13 +2181,493 @@
       <c r="C73" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="D73" s="13" t="n">
-        <v>1393</v>
+      <c r="D73" s="2" t="n">
+        <v>1483</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F73" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>365</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>591</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>711</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>365</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>591</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>711</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>376</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>607</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>452</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>730</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>519</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>519</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>330</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>533</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>397</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>641</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2245,7 +2693,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
@@ -2288,13 +2736,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2310,7 +2758,7 @@
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,13 +2766,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2340,7 +2788,7 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,13 +2796,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2368,19 +2816,19 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="K4" s="12"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
       <c r="B5" s="0"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="6"/>
       <c r="L5" s="9"/>
     </row>
@@ -2391,7 +2839,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
-      <c r="K6" s="15"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,7 +2849,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,7 +2859,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,7 +2868,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="8"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,18 +2877,18 @@
       <c r="F10" s="6"/>
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="0"/>
-      <c r="D11" s="17"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="0"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="L11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1"/>
@@ -2448,7 +2896,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2905,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,18 +2914,18 @@
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
       <c r="B15" s="0"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="L15" s="17"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1"/>
@@ -2486,7 +2934,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,7 +2944,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
-      <c r="K17" s="15"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="9"/>
     </row>
   </sheetData>
@@ -2515,13 +2963,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D140" activeCellId="0" sqref="D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.35"/>
   </cols>
@@ -2546,10 +2994,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -2559,8 +3007,8 @@
       <c r="C2" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D2" s="20" t="n">
-        <v>1281</v>
+      <c r="D2" s="7" t="n">
+        <v>1345</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>22</v>
@@ -2569,10 +3017,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -2582,8 +3030,8 @@
       <c r="C3" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D3" s="20" t="n">
-        <v>1463</v>
+      <c r="D3" s="7" t="n">
+        <v>1536</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>22</v>
@@ -2592,10 +3040,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
@@ -2605,8 +3053,8 @@
       <c r="C4" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D4" s="20" t="n">
-        <v>2700</v>
+      <c r="D4" s="7" t="n">
+        <v>2835</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>22</v>
@@ -2615,10 +3063,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -2628,8 +3076,8 @@
       <c r="C5" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D5" s="20" t="n">
-        <v>3020</v>
+      <c r="D5" s="7" t="n">
+        <v>3171</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>22</v>
@@ -2638,10 +3086,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -2651,20 +3099,20 @@
       <c r="C6" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D6" s="20" t="n">
-        <v>3674</v>
+      <c r="D6" s="7" t="n">
+        <v>3858</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -2674,20 +3122,20 @@
       <c r="C7" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D7" s="20" t="n">
-        <v>4019</v>
+      <c r="D7" s="7" t="n">
+        <v>4220</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -2697,8 +3145,8 @@
       <c r="C8" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D8" s="20" t="n">
-        <v>1281</v>
+      <c r="D8" s="7" t="n">
+        <v>1345</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>22</v>
@@ -2707,10 +3155,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -2720,8 +3168,8 @@
       <c r="C9" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D9" s="20" t="n">
-        <v>1463</v>
+      <c r="D9" s="7" t="n">
+        <v>1536</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>22</v>
@@ -2730,10 +3178,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -2743,8 +3191,8 @@
       <c r="C10" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D10" s="20" t="n">
-        <v>2700</v>
+      <c r="D10" s="7" t="n">
+        <v>2835</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>22</v>
@@ -2753,10 +3201,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
@@ -2766,8 +3214,8 @@
       <c r="C11" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D11" s="20" t="n">
-        <v>3020</v>
+      <c r="D11" s="7" t="n">
+        <v>3171</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>22</v>
@@ -2776,10 +3224,10 @@
         <v>15</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -2789,20 +3237,20 @@
       <c r="C12" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D12" s="20" t="n">
-        <v>3674</v>
+      <c r="D12" s="7" t="n">
+        <v>3858</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -2812,20 +3260,20 @@
       <c r="C13" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D13" s="20" t="n">
-        <v>4019</v>
+      <c r="D13" s="7" t="n">
+        <v>4220</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -2835,8 +3283,8 @@
       <c r="C14" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D14" s="20" t="n">
-        <v>1299</v>
+      <c r="D14" s="7" t="n">
+        <v>1383</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>22</v>
@@ -2845,10 +3293,10 @@
         <v>13</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -2858,8 +3306,8 @@
       <c r="C15" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D15" s="20" t="n">
-        <v>1484</v>
+      <c r="D15" s="7" t="n">
+        <v>1580</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>22</v>
@@ -2868,10 +3316,10 @@
         <v>13</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
@@ -2881,8 +3329,8 @@
       <c r="C16" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D16" s="20" t="n">
-        <v>2738</v>
+      <c r="D16" s="7" t="n">
+        <v>2916</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>22</v>
@@ -2891,10 +3339,10 @@
         <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
@@ -2904,8 +3352,8 @@
       <c r="C17" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D17" s="20" t="n">
-        <v>3062</v>
+      <c r="D17" s="7" t="n">
+        <v>3261</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>22</v>
@@ -2914,10 +3362,10 @@
         <v>15</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
@@ -2927,20 +3375,20 @@
       <c r="C18" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D18" s="20" t="n">
-        <v>3725</v>
+      <c r="D18" s="7" t="n">
+        <v>3967</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -2950,20 +3398,20 @@
       <c r="C19" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D19" s="20" t="n">
-        <v>4074</v>
+      <c r="D19" s="7" t="n">
+        <v>4339</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -2973,8 +3421,8 @@
       <c r="C20" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D20" s="20" t="n">
-        <v>1153</v>
+      <c r="D20" s="7" t="n">
+        <v>1211</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>25</v>
@@ -2983,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,8 +3444,8 @@
       <c r="C21" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D21" s="13" t="n">
-        <v>1317</v>
+      <c r="D21" s="7" t="n">
+        <v>1383</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>25</v>
@@ -3006,7 +3454,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3019,8 +3467,8 @@
       <c r="C22" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D22" s="14" t="n">
-        <v>2430</v>
+      <c r="D22" s="7" t="n">
+        <v>2552</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>25</v>
@@ -3029,7 +3477,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,8 +3490,8 @@
       <c r="C23" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D23" s="14" t="n">
-        <v>2718</v>
+      <c r="D23" s="7" t="n">
+        <v>2854</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>25</v>
@@ -3052,7 +3500,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,17 +3513,17 @@
       <c r="C24" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D24" s="12" t="n">
-        <v>3307</v>
+      <c r="D24" s="7" t="n">
+        <v>3473</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,20 +3536,20 @@
       <c r="C25" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D25" s="12" t="n">
-        <v>3618</v>
+      <c r="D25" s="7" t="n">
+        <v>3798</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -3111,8 +3559,8 @@
       <c r="C26" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D26" s="20" t="n">
-        <v>1153</v>
+      <c r="D26" s="7" t="n">
+        <v>1211</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>25</v>
@@ -3121,7 +3569,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,8 +3582,8 @@
       <c r="C27" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D27" s="13" t="n">
-        <v>1317</v>
+      <c r="D27" s="7" t="n">
+        <v>1383</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>25</v>
@@ -3144,7 +3592,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,8 +3605,8 @@
       <c r="C28" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D28" s="14" t="n">
-        <v>2430</v>
+      <c r="D28" s="7" t="n">
+        <v>2552</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>25</v>
@@ -3167,7 +3615,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,8 +3628,8 @@
       <c r="C29" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D29" s="14" t="n">
-        <v>2718</v>
+      <c r="D29" s="7" t="n">
+        <v>2854</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>25</v>
@@ -3190,7 +3638,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,17 +3651,17 @@
       <c r="C30" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D30" s="12" t="n">
-        <v>3307</v>
+      <c r="D30" s="7" t="n">
+        <v>3473</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,17 +3674,17 @@
       <c r="C31" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D31" s="12" t="n">
-        <v>3618</v>
+      <c r="D31" s="7" t="n">
+        <v>3798</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,8 +3697,8 @@
       <c r="C32" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D32" s="13" t="n">
-        <v>1170</v>
+      <c r="D32" s="7" t="n">
+        <v>1245</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>25</v>
@@ -3259,7 +3707,7 @@
         <v>13</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,8 +3720,8 @@
       <c r="C33" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D33" s="13" t="n">
-        <v>1336</v>
+      <c r="D33" s="7" t="n">
+        <v>1422</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>25</v>
@@ -3282,7 +3730,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,8 +3743,8 @@
       <c r="C34" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D34" s="14" t="n">
-        <v>2465</v>
+      <c r="D34" s="7" t="n">
+        <v>2625</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>25</v>
@@ -3305,7 +3753,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,8 +3766,8 @@
       <c r="C35" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D35" s="14" t="n">
-        <v>2756</v>
+      <c r="D35" s="7" t="n">
+        <v>2935</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>25</v>
@@ -3328,7 +3776,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,17 +3789,17 @@
       <c r="C36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D36" s="12" t="n">
-        <v>3353</v>
+      <c r="D36" s="7" t="n">
+        <v>3571</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,17 +3812,17 @@
       <c r="C37" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D37" s="12" t="n">
-        <v>3667</v>
+      <c r="D37" s="7" t="n">
+        <v>3906</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,8 +3835,8 @@
       <c r="C38" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D38" s="13" t="n">
-        <v>1512</v>
+      <c r="D38" s="2" t="n">
+        <v>1588</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>26</v>
@@ -3397,7 +3845,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,8 +3858,8 @@
       <c r="C39" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D39" s="13" t="n">
-        <v>1727</v>
+      <c r="D39" s="2" t="n">
+        <v>1813</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>26</v>
@@ -3420,7 +3868,7 @@
         <v>13</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,8 +3881,8 @@
       <c r="C40" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D40" s="14" t="n">
-        <v>3186</v>
+      <c r="D40" s="2" t="n">
+        <v>3346</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>26</v>
@@ -3443,7 +3891,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,8 +3904,8 @@
       <c r="C41" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D41" s="14" t="n">
-        <v>3564</v>
+      <c r="D41" s="2" t="n">
+        <v>3742</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>26</v>
@@ -3466,7 +3914,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,17 +3927,17 @@
       <c r="C42" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D42" s="12" t="n">
-        <v>4336</v>
+      <c r="D42" s="2" t="n">
+        <v>4553</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,17 +3950,17 @@
       <c r="C43" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D43" s="12" t="n">
-        <v>4743</v>
+      <c r="D43" s="2" t="n">
+        <v>4980</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,8 +3973,8 @@
       <c r="C44" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D44" s="13" t="n">
-        <v>1512</v>
+      <c r="D44" s="2" t="n">
+        <v>1588</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>26</v>
@@ -3535,7 +3983,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3548,8 +3996,8 @@
       <c r="C45" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D45" s="13" t="n">
-        <v>1727</v>
+      <c r="D45" s="2" t="n">
+        <v>1813</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>26</v>
@@ -3558,7 +4006,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3571,8 +4019,8 @@
       <c r="C46" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D46" s="14" t="n">
-        <v>3186</v>
+      <c r="D46" s="2" t="n">
+        <v>3346</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>26</v>
@@ -3581,7 +4029,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,8 +4042,8 @@
       <c r="C47" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D47" s="14" t="n">
-        <v>3564</v>
+      <c r="D47" s="2" t="n">
+        <v>3742</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>26</v>
@@ -3604,7 +4052,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,17 +4065,17 @@
       <c r="C48" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D48" s="12" t="n">
-        <v>4336</v>
+      <c r="D48" s="2" t="n">
+        <v>4553</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,17 +4088,17 @@
       <c r="C49" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D49" s="12" t="n">
-        <v>4743</v>
+      <c r="D49" s="2" t="n">
+        <v>4980</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,8 +4111,8 @@
       <c r="C50" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D50" s="13" t="n">
-        <v>1533</v>
+      <c r="D50" s="2" t="n">
+        <v>1632</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>26</v>
@@ -3673,7 +4121,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,8 +4134,8 @@
       <c r="C51" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D51" s="13" t="n">
-        <v>1752</v>
+      <c r="D51" s="2" t="n">
+        <v>1865</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>26</v>
@@ -3696,7 +4144,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,8 +4157,8 @@
       <c r="C52" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D52" s="14" t="n">
-        <v>3231</v>
+      <c r="D52" s="2" t="n">
+        <v>3441</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>26</v>
@@ -3719,7 +4167,7 @@
         <v>15</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3732,8 +4180,8 @@
       <c r="C53" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D53" s="14" t="n">
-        <v>3614</v>
+      <c r="D53" s="2" t="n">
+        <v>3848</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>26</v>
@@ -3742,7 +4190,7 @@
         <v>15</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,17 +4203,17 @@
       <c r="C54" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D54" s="12" t="n">
-        <v>4396</v>
+      <c r="D54" s="2" t="n">
+        <v>4682</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3778,17 +4226,17 @@
       <c r="C55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D55" s="12" t="n">
-        <v>4808</v>
+      <c r="D55" s="2" t="n">
+        <v>5121</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,8 +4249,8 @@
       <c r="C56" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D56" s="13" t="n">
-        <v>1640</v>
+      <c r="D56" s="2" t="n">
+        <v>1722</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>27</v>
@@ -3811,7 +4259,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,8 +4272,8 @@
       <c r="C57" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D57" s="13" t="n">
-        <v>1873</v>
+      <c r="D57" s="2" t="n">
+        <v>1967</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>27</v>
@@ -3834,7 +4282,7 @@
         <v>13</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,8 +4295,8 @@
       <c r="C58" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D58" s="14" t="n">
-        <v>3456</v>
+      <c r="D58" s="2" t="n">
+        <v>3629</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>27</v>
@@ -3857,7 +4305,7 @@
         <v>15</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,8 +4318,8 @@
       <c r="C59" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D59" s="14" t="n">
-        <v>3866</v>
+      <c r="D59" s="2" t="n">
+        <v>4059</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>27</v>
@@ -3880,7 +4328,7 @@
         <v>15</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,17 +4341,17 @@
       <c r="C60" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D60" s="12" t="n">
-        <v>4703</v>
+      <c r="D60" s="2" t="n">
+        <v>4939</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,17 +4364,17 @@
       <c r="C61" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D61" s="12" t="n">
-        <v>5145</v>
+      <c r="D61" s="2" t="n">
+        <v>5402</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,8 +4387,8 @@
       <c r="C62" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D62" s="13" t="n">
-        <v>1640</v>
+      <c r="D62" s="2" t="n">
+        <v>1722</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>27</v>
@@ -3949,7 +4397,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,8 +4410,8 @@
       <c r="C63" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D63" s="13" t="n">
-        <v>1873</v>
+      <c r="D63" s="2" t="n">
+        <v>1967</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>27</v>
@@ -3972,7 +4420,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3985,8 +4433,8 @@
       <c r="C64" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D64" s="14" t="n">
-        <v>3456</v>
+      <c r="D64" s="2" t="n">
+        <v>3629</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>27</v>
@@ -3995,7 +4443,7 @@
         <v>15</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,8 +4456,8 @@
       <c r="C65" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D65" s="14" t="n">
-        <v>3866</v>
+      <c r="D65" s="2" t="n">
+        <v>4059</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>27</v>
@@ -4018,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,17 +4479,17 @@
       <c r="C66" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D66" s="12" t="n">
-        <v>4703</v>
+      <c r="D66" s="2" t="n">
+        <v>4939</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,17 +4502,17 @@
       <c r="C67" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D67" s="12" t="n">
-        <v>5145</v>
+      <c r="D67" s="2" t="n">
+        <v>5402</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,8 +4525,8 @@
       <c r="C68" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D68" s="13" t="n">
-        <v>1663</v>
+      <c r="D68" s="2" t="n">
+        <v>1771</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>27</v>
@@ -4087,7 +4535,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,8 +4548,8 @@
       <c r="C69" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D69" s="13" t="n">
-        <v>1900</v>
+      <c r="D69" s="2" t="n">
+        <v>2023</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>27</v>
@@ -4110,7 +4558,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,8 +4571,8 @@
       <c r="C70" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D70" s="14" t="n">
-        <v>3505</v>
+      <c r="D70" s="2" t="n">
+        <v>3733</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>27</v>
@@ -4133,7 +4581,7 @@
         <v>15</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,8 +4594,8 @@
       <c r="C71" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D71" s="14" t="n">
-        <v>3920</v>
+      <c r="D71" s="2" t="n">
+        <v>4175</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>27</v>
@@ -4156,7 +4604,7 @@
         <v>15</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,17 +4617,17 @@
       <c r="C72" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D72" s="12" t="n">
-        <v>4768</v>
+      <c r="D72" s="2" t="n">
+        <v>5078</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,17 +4640,17 @@
       <c r="C73" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D73" s="12" t="n">
-        <v>5215</v>
+      <c r="D73" s="2" t="n">
+        <v>5554</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,8 +4663,8 @@
       <c r="C74" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D74" s="13" t="n">
-        <v>2242</v>
+      <c r="D74" s="2" t="n">
+        <v>2354</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>28</v>
@@ -4225,7 +4673,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,8 +4686,8 @@
       <c r="C75" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D75" s="13" t="n">
-        <v>2561</v>
+      <c r="D75" s="2" t="n">
+        <v>2688</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>28</v>
@@ -4248,7 +4696,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4261,8 +4709,8 @@
       <c r="C76" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D76" s="14" t="n">
-        <v>4725</v>
+      <c r="D76" s="2" t="n">
+        <v>4962</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>28</v>
@@ -4271,7 +4719,7 @@
         <v>15</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4284,8 +4732,8 @@
       <c r="C77" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D77" s="14" t="n">
-        <v>5285</v>
+      <c r="D77" s="2" t="n">
+        <v>5550</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>28</v>
@@ -4294,7 +4742,7 @@
         <v>15</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,17 +4755,17 @@
       <c r="C78" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D78" s="12" t="n">
-        <v>6430</v>
+      <c r="D78" s="2" t="n">
+        <v>6752</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,17 +4778,17 @@
       <c r="C79" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D79" s="12" t="n">
-        <v>7034</v>
+      <c r="D79" s="2" t="n">
+        <v>7385</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,8 +4801,8 @@
       <c r="C80" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D80" s="13" t="n">
-        <v>2242</v>
+      <c r="D80" s="2" t="n">
+        <v>2354</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>28</v>
@@ -4363,7 +4811,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,8 +4824,8 @@
       <c r="C81" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D81" s="13" t="n">
-        <v>2561</v>
+      <c r="D81" s="2" t="n">
+        <v>2688</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>28</v>
@@ -4386,7 +4834,7 @@
         <v>13</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,8 +4847,8 @@
       <c r="C82" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D82" s="14" t="n">
-        <v>4725</v>
+      <c r="D82" s="2" t="n">
+        <v>4962</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>28</v>
@@ -4409,7 +4857,7 @@
         <v>15</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,8 +4870,8 @@
       <c r="C83" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D83" s="14" t="n">
-        <v>5285</v>
+      <c r="D83" s="2" t="n">
+        <v>5550</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>28</v>
@@ -4432,7 +4880,7 @@
         <v>15</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,17 +4893,17 @@
       <c r="C84" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D84" s="12" t="n">
-        <v>6430</v>
+      <c r="D84" s="2" t="n">
+        <v>6752</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,17 +4916,17 @@
       <c r="C85" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D85" s="12" t="n">
-        <v>7034</v>
+      <c r="D85" s="2" t="n">
+        <v>7385</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,8 +4939,8 @@
       <c r="C86" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D86" s="13" t="n">
-        <v>2274</v>
+      <c r="D86" s="2" t="n">
+        <v>2421</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>28</v>
@@ -4501,7 +4949,7 @@
         <v>13</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,8 +4962,8 @@
       <c r="C87" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D87" s="13" t="n">
-        <v>2597</v>
+      <c r="D87" s="2" t="n">
+        <v>2765</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>28</v>
@@ -4524,7 +4972,7 @@
         <v>13</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4537,8 +4985,8 @@
       <c r="C88" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D88" s="14" t="n">
-        <v>4792</v>
+      <c r="D88" s="2" t="n">
+        <v>5103</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>28</v>
@@ -4547,7 +4995,7 @@
         <v>15</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,8 +5008,8 @@
       <c r="C89" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D89" s="14" t="n">
-        <v>5359</v>
+      <c r="D89" s="2" t="n">
+        <v>5707</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>28</v>
@@ -4570,7 +5018,7 @@
         <v>15</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,17 +5031,17 @@
       <c r="C90" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D90" s="12" t="n">
-        <v>6519</v>
+      <c r="D90" s="2" t="n">
+        <v>6943</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,17 +5054,17 @@
       <c r="C91" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D91" s="12" t="n">
-        <v>7130</v>
+      <c r="D91" s="2" t="n">
+        <v>7594</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4629,8 +5077,8 @@
       <c r="C92" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D92" s="13" t="n">
-        <v>3203</v>
+      <c r="D92" s="2" t="n">
+        <v>3363</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>29</v>
@@ -4639,7 +5087,7 @@
         <v>13</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,8 +5100,8 @@
       <c r="C93" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D93" s="13" t="n">
-        <v>3658</v>
+      <c r="D93" s="2" t="n">
+        <v>3840</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>29</v>
@@ -4662,7 +5110,7 @@
         <v>13</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,8 +5123,8 @@
       <c r="C94" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D94" s="14" t="n">
-        <v>6750</v>
+      <c r="D94" s="2" t="n">
+        <v>7088</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>29</v>
@@ -4685,7 +5133,7 @@
         <v>15</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,8 +5146,8 @@
       <c r="C95" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D95" s="14" t="n">
-        <v>7550</v>
+      <c r="D95" s="2" t="n">
+        <v>7928</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>29</v>
@@ -4708,7 +5156,7 @@
         <v>15</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,17 +5169,17 @@
       <c r="C96" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D96" s="12" t="n">
-        <v>9185</v>
+      <c r="D96" s="2" t="n">
+        <v>9645</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,17 +5192,17 @@
       <c r="C97" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D97" s="12" t="n">
-        <v>10048</v>
+      <c r="D97" s="2" t="n">
+        <v>10550</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,8 +5215,8 @@
       <c r="C98" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D98" s="13" t="n">
-        <v>3203</v>
+      <c r="D98" s="2" t="n">
+        <v>3363</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>29</v>
@@ -4777,7 +5225,7 @@
         <v>13</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,8 +5238,8 @@
       <c r="C99" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D99" s="13" t="n">
-        <v>3658</v>
+      <c r="D99" s="2" t="n">
+        <v>3840</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>29</v>
@@ -4800,7 +5248,7 @@
         <v>13</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,8 +5261,8 @@
       <c r="C100" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D100" s="14" t="n">
-        <v>6750</v>
+      <c r="D100" s="2" t="n">
+        <v>7088</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>29</v>
@@ -4823,7 +5271,7 @@
         <v>15</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,8 +5284,8 @@
       <c r="C101" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D101" s="14" t="n">
-        <v>7550</v>
+      <c r="D101" s="2" t="n">
+        <v>7928</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>29</v>
@@ -4846,7 +5294,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,17 +5307,17 @@
       <c r="C102" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D102" s="12" t="n">
-        <v>9185</v>
+      <c r="D102" s="2" t="n">
+        <v>9645</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4882,17 +5330,17 @@
       <c r="C103" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D103" s="12" t="n">
-        <v>10048</v>
+      <c r="D103" s="2" t="n">
+        <v>10550</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,8 +5353,8 @@
       <c r="C104" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D104" s="13" t="n">
-        <v>3248</v>
+      <c r="D104" s="2" t="n">
+        <v>3458</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>29</v>
@@ -4915,7 +5363,7 @@
         <v>13</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,8 +5376,8 @@
       <c r="C105" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D105" s="13" t="n">
-        <v>3710</v>
+      <c r="D105" s="2" t="n">
+        <v>3950</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>29</v>
@@ -4938,7 +5386,7 @@
         <v>13</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4951,8 +5399,8 @@
       <c r="C106" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D106" s="14" t="n">
-        <v>6845</v>
+      <c r="D106" s="2" t="n">
+        <v>7290</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>29</v>
@@ -4961,7 +5409,7 @@
         <v>15</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,8 +5422,8 @@
       <c r="C107" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D107" s="14" t="n">
-        <v>7655</v>
+      <c r="D107" s="2" t="n">
+        <v>8153</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>29</v>
@@ -4984,7 +5432,7 @@
         <v>15</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,17 +5445,17 @@
       <c r="C108" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D108" s="12" t="n">
-        <v>9313</v>
+      <c r="D108" s="2" t="n">
+        <v>9918</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,17 +5468,845 @@
       <c r="C109" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D109" s="12" t="n">
-        <v>10185</v>
+      <c r="D109" s="2" t="n">
+        <v>10848</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G109" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>3488</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>3901</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>4746</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>5191</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>3488</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>3901</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>4746</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>5191</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>1702</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>1944</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>3587</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>4012</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>4880</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>5337</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>1453</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>1659</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>3062</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>3425</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>4167</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>4558</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>1453</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>1659</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>3062</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>3425</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>4167</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>4558</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>1494</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>1707</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>3150</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>3522</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>4285</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>4687</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5055,7 +6331,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.38"/>
   </cols>
@@ -5077,15 +6353,15 @@
         <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5099,15 +6375,15 @@
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5121,15 +6397,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5143,15 +6419,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5164,16 +6440,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>43</v>
+      <c r="F5" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5186,16 +6462,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>43</v>
+      <c r="F6" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5208,16 +6484,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>43</v>
+      <c r="F7" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5230,16 +6506,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>44</v>
+      <c r="F8" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5252,16 +6528,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>44</v>
+      <c r="F9" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5274,16 +6550,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>44</v>
+      <c r="F10" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5296,16 +6572,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>45</v>
+      <c r="F11" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5318,16 +6594,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>45</v>
+      <c r="F12" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5340,16 +6616,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>45</v>
+      <c r="F13" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5362,16 +6638,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>46</v>
+      <c r="F14" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5384,16 +6660,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>46</v>
+      <c r="F15" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5406,8 +6682,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>46</v>
+      <c r="F16" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5432,7 +6708,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.67"/>
   </cols>
@@ -5462,13 +6738,13 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="25" t="s">
         <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5487,13 +6763,13 @@
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5512,13 +6788,13 @@
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5557,7 +6833,7 @@
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.8"/>
   </cols>
@@ -5581,10 +6857,10 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5600,10 +6876,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5619,10 +6895,10 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5638,10 +6914,10 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5673,11 +6949,11 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.85"/>
   </cols>
@@ -5701,10 +6977,10 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5720,10 +6996,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5739,10 +7015,10 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5758,10 +7034,10 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5797,7 +7073,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.94"/>
   </cols>
@@ -5821,10 +7097,10 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5840,10 +7116,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5859,10 +7135,10 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5878,10 +7154,10 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6" t="n">
         <f aca="false">TRUE()</f>
